--- a/data/trans_dic/P78D$ninguna_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78D$ninguna_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>89,2; 99,03</t>
+          <t>89,6; 99,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>90,34; 99,45</t>
+          <t>90,89; 99,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,47; 98,94</t>
+          <t>93,61; 98,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,49; 91,97</t>
+          <t>84,14; 91,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,43; 93,29</t>
+          <t>88,94; 93,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87,41; 91,87</t>
+          <t>87,27; 92,01</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>92,06; 97,25</t>
+          <t>92,17; 97,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>90,4; 95,4</t>
+          <t>90,3; 95,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>92,35; 95,78</t>
+          <t>92,37; 95,78</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,53; 92,88</t>
+          <t>83,39; 93,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>88,0; 94,15</t>
+          <t>88,06; 94,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>87,25; 92,72</t>
+          <t>87,71; 92,87</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>96,49; 99,69</t>
+          <t>96,66; 99,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>96,83; 99,39</t>
+          <t>96,67; 99,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>97,35; 99,27</t>
+          <t>97,38; 99,28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>92,67; 97,6</t>
+          <t>93,04; 97,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91,98; 96,76</t>
+          <t>91,84; 96,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,3; 96,62</t>
+          <t>93,14; 96,7</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>93,25; 96,79</t>
+          <t>93,17; 96,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>89,65; 96,71</t>
+          <t>89,88; 96,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>92,15; 96,46</t>
+          <t>92,27; 96,27</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>60,74; 87,05</t>
+          <t>60,98; 87,64</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>58,16; 64,41</t>
+          <t>58,69; 64,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>61,22; 80,56</t>
+          <t>60,9; 80,56</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>86,16; 90,5</t>
+          <t>86,21; 90,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>85,96; 89,67</t>
+          <t>85,97; 89,59</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>86,48; 89,37</t>
+          <t>86,45; 89,17</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no ha tenido retrasos en pagos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>517</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>831</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>294199</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>276390</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>570589</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>271934; 300481</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>257500; 281820</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>549311; 579684</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>448110</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>458538</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>906648</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>425220; 463530</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>446587; 469015</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>879205; 926944</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>824</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>296627</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>313096</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>609723</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>287449; 303334</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>303331; 320085</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>598348; 620424</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>769</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>265398</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>615400</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>248440; 277339</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>336609; 360933</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>596615; 631709</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>174135</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>249783</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>423918</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>170642; 175652</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>245238; 252016</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>418985; 427124</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>253573</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>240510</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>494083</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>246160; 258950</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>233554; 245864</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>483274; 501756</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>827</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1366</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>561813</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>760531</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1322343</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>548915; 570582</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>735891; 791024</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1299061; 1355410</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>660035</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>425470</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1085506</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>558060; 802104</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>405455; 448788</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>978105; 1293877</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2847</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>4523</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>7370</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2953890</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3074321</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>6028210</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2900121; 3049107</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>3027125; 3154669</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>5952601; 6139400</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>